--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/99/word_level_predictions_99.xlsx
@@ -1178,626 +1178,626 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>If</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>propellers</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>correctly</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="D22" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>propellers</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>9</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>cannot</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>correctly</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>11</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>12</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>13</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>14</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>still</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>15</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>cannot</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>16</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>takeoff,</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -2449,393 +2449,393 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>moving</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cannot</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>shoot</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="46">
+      <c r="A46" t="n">
         <v>2</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>moving</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>panorama</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Cannot</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>shoot</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>panorama</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2894,416 +2894,416 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Capture</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Stick</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>movement</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Missed_E-Event</t>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Panorama</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>has</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>3</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>stopped</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/99/word_level_predictions_99.xlsx
@@ -1178,626 +1178,626 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>If</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>7</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>propellers</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>9</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>correctly</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>12</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>13</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>14</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>still</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>15</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>cannot</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" t="n">
         <v>16</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>takeoff,</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>17</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2449,393 +2449,393 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>moving</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Cannot</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>shoot</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>panorama</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>4</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>moving</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>5</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Cannot</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>6</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>2</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>shoot</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>7</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>panorama</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>8</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2894,416 +2894,416 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Capture</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Stick</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>movement</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>detected</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>Missed_E-Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Panorama</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>has</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Stick</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>stopped</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>movement</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>3</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>detected</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>4</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Panorama</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>3</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>has</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>stopped</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
